--- a/doc/READS.xlsx
+++ b/doc/READS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\vs2drt-RM\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Programs\vs2drt-RM-GUI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="209">
   <si>
     <t>i</t>
   </si>
@@ -621,9 +621,6 @@
     <t>if jflag=1,seep</t>
   </si>
   <si>
-    <t>if not trans</t>
-  </si>
-  <si>
     <t>Move up to if solute?</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>if not trans,IBC&gt;0</t>
+  </si>
+  <si>
+    <t>(JTEX(N),N=1,NXR)</t>
   </si>
 </sst>
 </file>
@@ -4623,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,7 +5026,7 @@
         <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
         <v>2</v>
@@ -5766,7 +5766,7 @@
         <v>26</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
         <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H68" t="s">
         <v>2</v>
@@ -6770,7 +6770,7 @@
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H87" t="s">
         <v>2</v>
@@ -6797,7 +6797,7 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H88" t="s">
         <v>2</v>
@@ -6824,10 +6824,10 @@
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H89" t="s">
         <v>2</v>
@@ -6854,7 +6854,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H90" t="s">
         <v>2</v>
@@ -6881,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H91" t="s">
         <v>2</v>
@@ -6908,7 +6908,7 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H92" t="s">
         <v>2</v>
@@ -6935,10 +6935,10 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H93" t="s">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H94" t="s">
         <v>2</v>

--- a/doc/READS.xlsx
+++ b/doc/READS.xlsx
@@ -609,9 +609,6 @@
     <t>if solute,iread=1</t>
   </si>
   <si>
-    <t>if fp7</t>
-  </si>
-  <si>
     <t>numBF</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>(JTEX(N),N=1,NXR)</t>
+  </si>
+  <si>
+    <t>if f7p</t>
   </si>
 </sst>
 </file>
@@ -4623,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,7 +5026,7 @@
         <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" t="s">
         <v>2</v>
@@ -5766,7 +5766,7 @@
         <v>26</v>
       </c>
       <c r="J48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -6275,7 +6275,7 @@
         <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H68" t="s">
         <v>2</v>
@@ -6417,7 +6417,7 @@
         <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="H74" t="s">
         <v>2</v>
@@ -6444,10 +6444,10 @@
         <v>149</v>
       </c>
       <c r="E75" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" t="s">
         <v>192</v>
-      </c>
-      <c r="F75" t="s">
-        <v>193</v>
       </c>
       <c r="H75" t="s">
         <v>2</v>
@@ -6474,7 +6474,7 @@
         <v>31</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F76" t="s">
         <v>83</v>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H77" t="s">
         <v>2</v>
@@ -6530,7 +6530,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H78" t="s">
         <v>2</v>
@@ -6557,7 +6557,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H79" t="s">
         <v>2</v>
@@ -6584,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H80" t="s">
         <v>2</v>
@@ -6611,7 +6611,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H81" t="s">
         <v>2</v>
@@ -6638,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H82" t="s">
         <v>2</v>
@@ -6665,7 +6665,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H83" t="s">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H84" t="s">
         <v>2</v>
@@ -6719,7 +6719,7 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H85" t="s">
         <v>2</v>
@@ -6770,7 +6770,7 @@
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H87" t="s">
         <v>2</v>
@@ -6797,7 +6797,7 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H88" t="s">
         <v>2</v>
@@ -6824,10 +6824,10 @@
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H89" t="s">
         <v>2</v>
@@ -6854,7 +6854,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H90" t="s">
         <v>2</v>
@@ -6881,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H91" t="s">
         <v>2</v>
@@ -6908,7 +6908,7 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H92" t="s">
         <v>2</v>
@@ -6935,10 +6935,10 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H93" t="s">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H94" t="s">
         <v>2</v>
